--- a/biology/Zoologie/Coenagrionidae/Coenagrionidae.xlsx
+++ b/biology/Zoologie/Coenagrionidae/Coenagrionidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coenagrionidae forment la famille la plus nombreuse appartenant aux zygoptères dans l'ordre des odonates. Cette famille comprend plus de 1 180 espèces. Les demoiselles de cette famille sont généralement de petite taille et on y retrouve les plus petits spécimens existants. Comme tous les odonates, ces insectes sont carnivores et se nourrissent de divers invertébrés.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom provient du grec « Coen » qui veut dire partagé ou sens communs et « agrio », champ ou nature.
 </t>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les petites demoiselles de ce groupe peuvent avoir une coloration très variée (bleu, vert, jaune, orange, rouge et violet), habituellement avec la présence de motifs de couleur noire. Les ailes sont généralement transparentes avec un petit pterostigma. Au repos, les ailes se joignent, complètement fermées, parallèles au corps[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les petites demoiselles de ce groupe peuvent avoir une coloration très variée (bleu, vert, jaune, orange, rouge et violet), habituellement avec la présence de motifs de couleur noire. Les ailes sont généralement transparentes avec un petit pterostigma. Au repos, les ailes se joignent, complètement fermées, parallèles au corps.
 			Motifs noirs chez ce Coenagrionidae
 			Position de repos, ailes fermées
 </t>
@@ -575,7 +591,9 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coenagrioninae :
 Acanthagrion Selys, 1876
